--- a/output/google_maps_data_Bantul_Government_office.xlsx
+++ b/output/google_maps_data_Bantul_Government_office.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.886243</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.886243</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.327931</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Kabupaten+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f69d1983:0x227af3c2bbc028b6!8m2!3d-7.8862429!4d110.3279307!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzsqjg0s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.887293</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.887293</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.32741</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bupati+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f150ce49:0xb7fe605811d3c6e7!8m2!3d-7.887293!4d110.32741!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzwfd4_6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,25 +568,24 @@
           <t>(0274) 367404</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>-7.883441</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.883441</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.332073</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -620,25 +612,24 @@
           <t>(0274) 367333</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.897343</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.897343</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.340582</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Bantul/@-7.8973435,110.3225574,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55524c88b353:0xa01177a8be78a9db!8m2!3d-7.8973435!4d110.3405818!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11ng53lby4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -657,25 +648,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.882518</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.882518</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.331496</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9db4b345:0x5659262b5bc1b7a7!8m2!3d-7.8825185!4d110.3314957!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dz_zjg2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -690,25 +680,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.886403</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.886403</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.327579</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Administrasi+Pemerintahan+Setda+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff2699f77ac9:0x207936493c2104b0!8m2!3d-7.8864034!4d110.3275791!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11g303l9w4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,25 +720,24 @@
           <t>(0274) 367533</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.886947</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.886947</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.32792</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Bantul(%EA%A6%A7%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%A3%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a58391cf748f1:0x50339dd2b6cb13ab!8m2!3d-7.8869473!4d110.3279202!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzv283rg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -768,25 +756,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>-7.886945</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.886945</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.327446</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pengelolaan+Keuangan,+Pendapatan+dan+Aset+Daerah+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56621bd50d:0x566e12e08a8bce03!8m2!3d-7.8869452!4d110.3274459!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c75pxtvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pengelolaan+Keuangan,+Pendapatan+dan+Aset+Daerah+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56621bd50d:0x566e12e08a8bce03!8m2!3d-7.8869452!4d110.3274459!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c75pxtvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>(0274) 367446</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>-7.90509</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.90509</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.3495</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Bantul/@-7.90509,110.3314757,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff529cb62a31:0x289a5fe73dbadcc4!8m2!3d-7.90509!4d110.3495001!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c6r32z2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Bantul/@-7.90509,110.3314757,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff529cb62a31:0x289a5fe73dbadcc4!8m2!3d-7.90509!4d110.3495001!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c6r32z2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -854,25 +840,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.886618</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.886618</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.327493</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bantulpedia/@-7.8866175,110.3094684,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affe2a6b6acbb:0xcbc1d570ba1cbcd4!8m2!3d-7.8866175!4d110.3274928!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11rx287fg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bantulpedia/@-7.8866175,110.3094684,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affe2a6b6acbb:0xcbc1d570ba1cbcd4!8m2!3d-7.8866175!4d110.3274928!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11rx287fg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -899,25 +884,24 @@
           <t>(0274) 367171</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>-7.904959</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.904959</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.349049</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kepemudaan+dan+Olahraga+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3d7b0e74d:0x9414dc90605ec2cb!8m2!3d-7.9049586!4d110.3490493!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1ptxgrtpw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -940,25 +924,24 @@
           <t>(0274) 367867</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.904797</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.904797</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.347915</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5593fb3b2581:0x967bab785b50fe09!8m2!3d-7.9047974!4d110.3479151!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bw7pplxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5593fb3b2581:0x967bab785b50fe09!8m2!3d-7.9047974!4d110.3479151!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bw7pplxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -986,22 +969,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.886195</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.886195</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.327894</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Badan+kepegawaian+dan+Pengembangan+Sumber+Daya+Manusia+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff0036c0342f:0x33038655a04641a1!8m2!3d-7.8861947!4d110.3278938!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11vt5r_616?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,25 +1006,24 @@
           <t>(0274) 367509</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.886625</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.886625</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.327847</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff5604a1fd19:0xf17101146a758192!8m2!3d-7.8866254!4d110.3278469!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7rqynl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff5604a1fd19:0xf17101146a758192!8m2!3d-7.8866254!4d110.3278469!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7rqynl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1061,25 +1042,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.896053</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.896053</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.338432</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pora+Kab.+Bantul/@-7.8960535,110.3204078,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3c2f374eb:0x94f5828f38ca4a9f!8m2!3d-7.8960535!4d110.3384322!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dzdp1pk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pora+Kab.+Bantul/@-7.8960535,110.3204078,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3c2f374eb:0x94f5828f38ca4a9f!8m2!3d-7.8960535!4d110.3384322!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dzdp1pk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1106,25 +1086,24 @@
           <t>(0274) 368276</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>-7.882297</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.882297</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.331733</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Desa+Bantul/@-7.882297,110.3137086,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9b16f10b:0x79280ef861726647!8m2!3d-7.882297!4d110.331733!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6hwzrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Desa+Bantul/@-7.882297,110.3137086,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9b16f10b:0x79280ef861726647!8m2!3d-7.882297!4d110.331733!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6hwzrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1151,25 +1130,24 @@
           <t>(0274) 6460236</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.904212</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.904212</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.348415</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Ketahanan+Pangan+dan+Pertanian+Kabupaten+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57440fbb26f3:0xcdd5cce8561fde33!8m2!3d-7.9042123!4d110.3484152!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzrq4cqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Ketahanan+Pangan+dan+Pertanian+Kabupaten+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57440fbb26f3:0xcdd5cce8561fde33!8m2!3d-7.9042123!4d110.3484152!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzrq4cqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1188,25 +1166,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.902432</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.902432</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.348272</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pemkab+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55937894c04f:0xa02ec066d55beefa!8m2!3d-7.9024317!4d110.3482722!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11g8cmwtwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pemkab+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55937894c04f:0xa02ec066d55beefa!8m2!3d-7.9024317!4d110.3482722!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11g8cmwtwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1229,25 +1206,24 @@
           <t>(0274) 367337</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.879838</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.879838</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.330968</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Transito+Kabupaten+Bantul/@-7.8798382,110.3129436,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56000218f28b:0xb5a15bc95a8e472d!8m2!3d-7.8798382!4d110.330968!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11hczxz4gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Transito+Kabupaten+Bantul/@-7.8798382,110.3129436,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56000218f28b:0xb5a15bc95a8e472d!8m2!3d-7.8798382!4d110.330968!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11hczxz4gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1270,25 +1246,24 @@
           <t>(0274) 367325</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>-7.890649</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.890649</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.320835</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Inspektorat+Kabupaten+Bantul(%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%86%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%A0%EA%A7%80%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff50726d1b6b:0x4ee8178e63f93f88!8m2!3d-7.890649!4d110.3208348!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzpv8dft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Inspektorat+Kabupaten+Bantul(%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%86%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%A0%EA%A7%80%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff50726d1b6b:0x4ee8178e63f93f88!8m2!3d-7.890649!4d110.3208348!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzpv8dft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1312,22 +1287,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-7.886627</v>
+      </c>
       <c r="G22" t="n">
-        <v>-7.886627</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.328087</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Organisasi+Setda+Kabupaten+Bantul/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f467e305:0xf76b68732074a37f!8m2!3d-7.8866273!4d110.3280871!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzv_g8vz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1350,25 +1324,24 @@
           <t>0813-5354-1946</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.839813</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.839813</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.313424</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bangunjiwo/@-7.8398128,110.2953997,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af88843aaab75:0x533e3f7c3c8e467!8m2!3d-7.8398128!4d110.3134241!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhOVTlsWkhaUlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cn5ndyft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bangunjiwo/@-7.8398128,110.2953997,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af88843aaab75:0x533e3f7c3c8e467!8m2!3d-7.8398128!4d110.3134241!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhOVTlsWkhaUlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cn5ndyft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1388,22 +1361,21 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-7.874815</v>
+      </c>
       <c r="G24" t="n">
-        <v>-7.874815</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.325513</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bupati+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af90018307a3d:0x9cc4f24461698d0f!8m2!3d-7.8748148!4d110.3255131!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11vwlmlkwd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1423,22 +1395,21 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.886529</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.886529</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.32796</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Humas+dan+Protokol+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f677c365:0xae89ad1743aaf0a2!8m2!3d-7.8865294!4d110.32796!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7q94p1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1457,25 +1428,24 @@
           <t>0877-3422-2023</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.9</v>
+        <v>-7.889876</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.889876</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.317438</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPT+KPP+Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7afff22484d62f:0xc719ccfcc6d9bdb5!8m2!3d-7.8898758!4d110.3174376!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmphSEpJV25KQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11fmyjws7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPT+KPP+Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7afff22484d62f:0xc719ccfcc6d9bdb5!8m2!3d-7.8898758!4d110.3174376!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmphSEpJV25KQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11fmyjws7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1498,25 +1468,24 @@
           <t>(0274) 367601</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.895552</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.895552</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.346491</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Bantul/@-7.8955515,110.328467,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f13ff3d26d:0x9b71fe9cf72c74a7!8m2!3d-7.8955515!4d110.3464914!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlhblV0UVdWM0VBReABAPoBBAgAED0!16s%2Fg%2F1pzppjb_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Bantul/@-7.8955515,110.328467,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f13ff3d26d:0x9b71fe9cf72c74a7!8m2!3d-7.8955515!4d110.3464914!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlhblV0UVdWM0VBReABAPoBBAgAED0!16s%2Fg%2F1pzppjb_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1535,25 +1504,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.85632</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.85632</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.341274</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPTD+Balai+Pelaksana+Penyuluhan+DPPKP+Kabupaten+Bantul/@-7.8563198,110.3232492,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57ca3c8c6f69:0xf5b87e6a7a360bea!8m2!3d-7.8563198!4d110.3412736!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkpNVTEyZGw5M1JSQULgAQD6AQQIABAp!16s%2Fg%2F11gw2nd6tf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPTD+Balai+Pelaksana+Penyuluhan+DPPKP+Kabupaten+Bantul/@-7.8563198,110.3232492,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57ca3c8c6f69:0xf5b87e6a7a360bea!8m2!3d-7.8563198!4d110.3412736!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkpNVTEyZGw5M1JSQULgAQD6AQQIABAp!16s%2Fg%2F11gw2nd6tf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1572,25 +1540,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.890083</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.890083</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.325738</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff575957475b:0xcd94329e57da15dc!8m2!3d-7.8900829!4d110.3257382!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEHY291bmNpbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdExVNUxSSGwzUlJBQuABAPoBBAgAEEQ!16s%2Fg%2F1vwgycsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff575957475b:0xcd94329e57da15dc!8m2!3d-7.8900829!4d110.3257382!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEHY291bmNpbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdExVNUxSSGwzUlJBQuABAPoBBAgAEEQ!16s%2Fg%2F1vwgycsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1613,25 +1580,24 @@
           <t>(0274) 367509</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>-7.886631</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.886631</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.327478</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff568b6c4877:0x1fa8698e3d8d7691!8m2!3d-7.8866311!4d110.3274781!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnNaMDlpVG14QlJSQULgAQD6AQQIABAP!16s%2Fg%2F1pzstb1hv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff568b6c4877:0x1fa8698e3d8d7691!8m2!3d-7.8866311!4d110.3274781!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnNaMDlpVG14QlJSQULgAQD6AQQIABAP!16s%2Fg%2F1pzstb1hv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1658,25 +1624,24 @@
           <t>(0274) 367411</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.6</v>
+        <v>-7.893156</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.893156</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.336743</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Bantul/@-7.8931563,110.318719,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f6d369dabd:0x75f1e473d3f729e!8m2!3d-7.8931563!4d110.3367434!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOblpwTUZCUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzrsjmzt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Bantul/@-7.8931563,110.318719,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f6d369dabd:0x75f1e473d3f729e!8m2!3d-7.8931563!4d110.3367434!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOblpwTUZCUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzrsjmzt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1703,25 +1668,24 @@
           <t>(0274) 367348</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.890949</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.890949</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.325159</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.3071346,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEPY2l0eV9jb3VydGhvdXNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTWpWVE1sZDNFQUXgAQD6AQUIiQEQQQ!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.3071346,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEPY2l0eV9jb3VydGhvdXNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTWpWVE1sZDNFQUXgAQD6AQUIiQEQQQ!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1744,25 +1708,24 @@
           <t>(0274) 2810074</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.905501</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.905501</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.349857</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bagian+Pengadaan+Barang+dan+Jasa+Setda+Kabupaten+Bantul/@-7.9055013,110.3318323,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55673a64f995:0x9141c80f480e2aab!8m2!3d-7.9055013!4d110.3498567!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBhbEJRU2pSQlJSQULgAQD6AQQIABAP!16s%2Fg%2F11gj19j6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bagian+Pengadaan+Barang+dan+Jasa+Setda+Kabupaten+Bantul/@-7.9055013,110.3318323,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55673a64f995:0x9141c80f480e2aab!8m2!3d-7.9055013!4d110.3498567!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBhbEJRU2pSQlJSQULgAQD6AQQIABAP!16s%2Fg%2F11gj19j6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1785,25 +1748,24 @@
           <t>(0274) 367032</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.893082</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.893082</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.336402</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Administrasi+Veteran+dan+Cadangan+IV-15%2FBantul/@-7.8930822,110.3183771,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f5d32c3097:0xb626715013982158!8m2!3d-7.8930822!4d110.3364015!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11hzy7sk01?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Administrasi+Veteran+dan+Cadangan+IV-15%2FBantul/@-7.8930822,110.3183771,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f5d32c3097:0xb626715013982158!8m2!3d-7.8930822!4d110.3364015!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11hzy7sk01?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1822,25 +1784,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F35" t="n">
-        <v>3.8</v>
+        <v>-7.88982</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.88982</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.354466</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Sabdodadi/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55e8030ee6f9:0x461a084162d55492!8m2!3d-7.8898197!4d110.3544658!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVNMDE1Ymw5QlJSQULgAQD6AQQIABAU!16s%2Fg%2F11c5sx45mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Sabdodadi/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55e8030ee6f9:0x461a084162d55492!8m2!3d-7.8898197!4d110.3544658!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVNMDE1Ymw5QlJSQULgAQD6AQQIABAU!16s%2Fg%2F11c5sx45mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1864,22 +1825,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.904792</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.904792</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.347917</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Immigration+Office+(Unit+Layanan+Paspor+Bantul)/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a550078ed2883:0xb76ea9504453cefd!8m2!3d-7.9047917!4d110.3479165!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11lzk6j1s_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1899,22 +1859,21 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.886393</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.886393</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.327757</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Umum+Setda+Kabupaten+Bantul/@-7.886393,110.3097324,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff4f71a08965:0x301b2eb7d929900e!8m2!3d-7.886393!4d110.3277568!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11gl57hd18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1937,25 +1896,24 @@
           <t>(0274) 6469008</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>-7.905252</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.905252</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.348589</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Sosial+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5596a70bd147:0x1ea26ae12ce5e12e!8m2!3d-7.9052517!4d110.348589!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMV1F5YVc1M1JSQULgAQD6AQQIABA8!16s%2Fg%2F11bw4zk7s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Sosial+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5596a70bd147:0x1ea26ae12ce5e12e!8m2!3d-7.9052517!4d110.348589!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMV1F5YVc1M1JSQULgAQD6AQQIABA8!16s%2Fg%2F11bw4zk7s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1982,25 +1940,24 @@
           <t>(0274) 6460181</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.905111</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.905111</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.347578</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTllPSEJNTjI5blJSQULgAQD6AQQIABAa!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTllPSEJNTjI5blJSQULgAQD6AQQIABAa!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2020,22 +1977,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.886206</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.886206</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.327676</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bagian+Tata+Pemerintahan+Setda+Kabupaten+Bantul/@-7.8862063,110.3096519,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affcf1a1bba65:0x3ac434ea87c4c5e5!8m2!3d-7.8862063!4d110.3276763!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11sx41bbzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2058,25 +2014,24 @@
           <t>(0274) 2810756</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.905081</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.905081</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.350423</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Bantul/@-7.9050808,110.332399,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56231e404f79:0xbca610b4623bd1e8!8m2!3d-7.9050808!4d110.3504234!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhkV0Z5U1d0blJSQULgAQD6AQQIABAm!16s%2Fg%2F11f5t_jlnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
